--- a/excel_results/second run/csv_results_HIGH_2E_DD_STRUT_2.xlsx
+++ b/excel_results/second run/csv_results_HIGH_2E_DD_STRUT_2.xlsx
@@ -5,17 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\excel_results\second run\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891D49EE-834E-4BF8-B735-59916F0CF23D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FADFCD8-AECE-4305-83CA-3353496DE97B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv_results_HIGH_2E_DD_STRUT_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1220,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CV2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,6 +1260,7 @@
     <col min="26" max="26" width="34.5546875" customWidth="1"/>
     <col min="27" max="27" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="14.6640625" customWidth="1"/>
     <col min="62" max="64" width="14.6640625" bestFit="1" customWidth="1"/>
